--- a/poptimizer/reports/tests/data/test.xlsx
+++ b/poptimizer/reports/tests/data/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/PortfolioOptimizer/src/portfolio_optimizer/reporter/tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WLMike/Documents/PycharmProjects/poptimizer/poptimizer/reports/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5A26547-205E-E34D-B319-5F5625F11A99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683238E8-1A34-4640-9B96-BDB828870DA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,7 +411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
